--- a/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
+++ b/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -55,13 +55,16 @@
     <t xml:space="preserve">NE_Dubai/</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-5-1</t>
+    <t xml:space="preserve">2025-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-03-31</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Monthly/Quarterly/Semi-Annual/Annual</t>
+    <t xml:space="preserve">Annual</t>
   </si>
   <si>
     <t xml:space="preserve">Now Health Simple Care</t>
@@ -105,6 +108,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,12 +194,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
@@ -248,18 +252,20 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
+++ b/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">now_health_simplecare_row</t>
   </si>
   <si>
-    <t xml:space="preserve">ROW</t>
+    <t xml:space="preserve">NE_Dubai/</t>
   </si>
   <si>
     <t xml:space="preserve">2025-04-01</t>
@@ -206,10 +206,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>

--- a/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
+++ b/Inputs/Now_Health_SimpleCare_ROW/info.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual</t>
+    <t xml:space="preserve">Annually/month</t>
   </si>
   <si>
     <t xml:space="preserve">Now Health (Simple Care)</t>
@@ -206,10 +206,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
